--- a/Results & Graphics.xlsx
+++ b/Results & Graphics.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flash\Documents\CODE\IntSystems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flash\Documents\CODE\IntSystems\NN-Programming-Exercise\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TEST 1 - ACTIVATION" sheetId="1" r:id="rId1"/>
@@ -233,10 +233,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -293,7 +293,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-AR"/>
-              <a:t>N°</a:t>
+              <a:t>Error vs N°</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="es-AR" baseline="0"/>
@@ -1230,6 +1230,7 @@
         <c:axId val="445651128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="5.000000000000001E-3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1408,7 +1409,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="es-AR"/>
-              <a:t>Time  N°</a:t>
+              <a:t>Time vs N°</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="es-AR" baseline="0"/>
@@ -2515,6 +2516,14 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-AR"/>
+              <a:t>Error vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-AR" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-AR"/>
               <a:t>Batch</a:t>
             </a:r>
             <a:r>
@@ -3188,6 +3197,7 @@
         <c:axId val="445651128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="6.0000000000000019E-3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6858,7 +6868,7 @@
   <dimension ref="B2:H172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:H3"/>
+      <selection activeCell="B11" sqref="B11:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7017,11 +7027,11 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="5" t="s">
         <v>35</v>
       </c>
       <c r="F11" t="s">
@@ -7035,10 +7045,10 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="6"/>
       <c r="D12">
         <v>5</v>
       </c>
@@ -8146,7 +8156,7 @@
   <dimension ref="B2:J94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E12"/>
+      <selection activeCell="H4" sqref="H4:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8347,14 +8357,14 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="5"/>
       <c r="G11" t="s">
         <v>22</v>
       </c>
@@ -8369,10 +8379,10 @@
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="6"/>
       <c r="D12">
         <v>5</v>
       </c>
@@ -9551,7 +9561,7 @@
   <dimension ref="B1:L63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E12"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9810,14 +9820,14 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="5"/>
       <c r="G11">
         <v>43.986449956900003</v>
       </c>
@@ -9838,10 +9848,10 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="6"/>
       <c r="D12">
         <v>5</v>
       </c>
@@ -11220,11 +11230,11 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="E11" s="6" t="s">
+      <c r="C11" s="6"/>
+      <c r="E11" s="5" t="s">
         <v>38</v>
       </c>
       <c r="G11">
@@ -11250,10 +11260,10 @@
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="6"/>
       <c r="E12">
         <v>5</v>
       </c>
@@ -13284,8 +13294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="J3:P101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15485,7 +15495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:E8"/>
     </sheetView>
   </sheetViews>
@@ -15765,11 +15775,11 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="E11" s="6" t="s">
+      <c r="C11" s="6"/>
+      <c r="E11" s="5" t="s">
         <v>38</v>
       </c>
       <c r="G11">
@@ -15795,10 +15805,10 @@
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="6"/>
       <c r="E12">
         <v>5</v>
       </c>
@@ -17829,8 +17839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="J3:P101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Results & Graphics.xlsx
+++ b/Results & Graphics.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="56">
   <si>
     <t xml:space="preserve">relu </t>
   </si>
@@ -183,6 +183,21 @@
   </si>
   <si>
     <t>N° Epochs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>serial-relu</t>
+  </si>
+  <si>
+    <t>serial-selu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> serial-tanh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> serial-softmax</t>
   </si>
 </sst>
 </file>
@@ -2516,6 +2531,932 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-AR"/>
+              <a:t>Single CoreTraining</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-AR" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>Time vs Parallel</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-AR" baseline="0"/>
+              <a:t> (x4) Core Training Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TEST 4 - GRAPHICS'!$O$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>relu </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'TEST 4 - GRAPHICS'!$J$3:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TEST 4 - GRAPHICS'!$L$43:$L$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.2937250137300005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.0318930149</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.603413820299998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.505825996399999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.081077098800002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.973671197900003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61.565191984199998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.395673036600002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79.154656887100003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>87.549925088899997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-72BF-4659-8486-2E622F0D3200}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TEST 4 - GRAPHICS'!$O$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>selu </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'TEST 4 - GRAPHICS'!$J$3:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TEST 4 - GRAPHICS'!$L$63:$L$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.84681105614</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.272269010500001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.697160959200001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.932604074499999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.102987050999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56.496933937100003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65.890044927600002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75.205559968900005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84.638766050300006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94.147618055300001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-72BF-4659-8486-2E622F0D3200}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TEST 4 - GRAPHICS'!$O$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tanh </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'TEST 4 - GRAPHICS'!$J$3:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TEST 4 - GRAPHICS'!$L$83:$L$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.11978292465</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.673681974400001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.624169111299999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.037171840699997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.753865003599998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.372117996199997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.760476112399999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69.711133003200004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78.554760932899995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>86.851011037800006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-72BF-4659-8486-2E622F0D3200}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TEST 4 - GRAPHICS'!$W$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>serial-relu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'TEST 4 - GRAPHICS'!$T$43:$T$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>16.8874411583</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.379999160799997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.702142953900001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.268064022100006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.727758884400004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.051964998200006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>115.274855852</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>132.09904599199999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>147.792614937</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>165.40387296700001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-72BF-4659-8486-2E622F0D3200}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TEST 4 - GRAPHICS'!$W$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>serial-selu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'TEST 4 - GRAPHICS'!$T$63:$T$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>17.441600084299999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.857917070399999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.333017826099997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.104335069699999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.690194845199997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105.34569096600001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>121.656322002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>137.57618904099999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150.40406990100001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>170.00368380500001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-72BF-4659-8486-2E622F0D3200}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TEST 4 - GRAPHICS'!$W$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> serial-tanh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'TEST 4 - GRAPHICS'!$T$83:$T$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>16.658231019999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.2096071243</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.516608953499997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.2498371601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78.7806379795</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94.575211048100002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110.36895704299999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>125.62333703</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>141.59635399999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>153.256325</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-72BF-4659-8486-2E622F0D3200}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="445650472"/>
+        <c:axId val="445651128"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="445650472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445651128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="445651128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445650472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
               <a:t>Error vs</a:t>
             </a:r>
             <a:r>
@@ -3333,7 +4274,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -4305,6 +5246,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6408,6 +7389,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6481,6 +7978,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B77DFCF-C7EC-43D2-9829-2C68F92213A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13292,10 +14827,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="J3:P101"/>
+  <dimension ref="J3:Z101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:L4"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13967,7 +15502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J33">
         <v>11</v>
       </c>
@@ -13990,7 +15525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J34">
         <v>12</v>
       </c>
@@ -14013,7 +15548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J35">
         <v>13</v>
       </c>
@@ -14036,7 +15571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J36">
         <v>14</v>
       </c>
@@ -14059,7 +15594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J37">
         <v>15</v>
       </c>
@@ -14082,7 +15617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J38">
         <v>16</v>
       </c>
@@ -14105,7 +15640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J39">
         <v>17</v>
       </c>
@@ -14128,7 +15663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J40">
         <v>18</v>
       </c>
@@ -14151,7 +15686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J41">
         <v>19</v>
       </c>
@@ -14174,7 +15709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J43" s="3">
         <v>1</v>
       </c>
@@ -14196,8 +15731,32 @@
       <c r="P43" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>200</v>
+      </c>
+      <c r="T43">
+        <v>16.8874411583</v>
+      </c>
+      <c r="U43">
+        <v>1.2944738864900001</v>
+      </c>
+      <c r="V43" s="1">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="W43" t="s">
+        <v>52</v>
+      </c>
+      <c r="X43" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J44" s="3">
         <v>2</v>
       </c>
@@ -14219,8 +15778,32 @@
       <c r="P44" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="R44">
+        <v>2</v>
+      </c>
+      <c r="S44">
+        <v>200</v>
+      </c>
+      <c r="T44">
+        <v>33.379999160799997</v>
+      </c>
+      <c r="U44">
+        <v>1.3119189739199999</v>
+      </c>
+      <c r="V44" s="1">
+        <v>1.78E-2</v>
+      </c>
+      <c r="W44" t="s">
+        <v>52</v>
+      </c>
+      <c r="X44" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J45" s="3">
         <v>3</v>
       </c>
@@ -14242,8 +15825,32 @@
       <c r="P45" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="R45">
+        <v>3</v>
+      </c>
+      <c r="S45">
+        <v>200</v>
+      </c>
+      <c r="T45">
+        <v>48.702142953900001</v>
+      </c>
+      <c r="U45">
+        <v>1.3037312030799999</v>
+      </c>
+      <c r="V45" s="1">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="W45" t="s">
+        <v>52</v>
+      </c>
+      <c r="X45" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J46" s="3">
         <v>4</v>
       </c>
@@ -14265,8 +15872,32 @@
       <c r="P46" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="R46">
+        <v>4</v>
+      </c>
+      <c r="S46">
+        <v>200</v>
+      </c>
+      <c r="T46">
+        <v>66.268064022100006</v>
+      </c>
+      <c r="U46">
+        <v>1.2796320915199999</v>
+      </c>
+      <c r="V46" s="1">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="W46" t="s">
+        <v>52</v>
+      </c>
+      <c r="X46" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J47" s="3">
         <v>5</v>
       </c>
@@ -14288,8 +15919,32 @@
       <c r="P47" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="R47">
+        <v>5</v>
+      </c>
+      <c r="S47">
+        <v>200</v>
+      </c>
+      <c r="T47">
+        <v>80.727758884400004</v>
+      </c>
+      <c r="U47">
+        <v>1.29810190201</v>
+      </c>
+      <c r="V47" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="W47" t="s">
+        <v>52</v>
+      </c>
+      <c r="X47" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J48" s="3">
         <v>6</v>
       </c>
@@ -14311,8 +15966,32 @@
       <c r="P48" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="R48">
+        <v>6</v>
+      </c>
+      <c r="S48">
+        <v>200</v>
+      </c>
+      <c r="T48">
+        <v>99.051964998200006</v>
+      </c>
+      <c r="U48">
+        <v>1.28821587563</v>
+      </c>
+      <c r="V48" s="1">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="W48" t="s">
+        <v>52</v>
+      </c>
+      <c r="X48" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J49" s="3">
         <v>7</v>
       </c>
@@ -14334,8 +16013,32 @@
       <c r="P49" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="R49">
+        <v>7</v>
+      </c>
+      <c r="S49">
+        <v>200</v>
+      </c>
+      <c r="T49">
+        <v>115.274855852</v>
+      </c>
+      <c r="U49">
+        <v>1.28488492966</v>
+      </c>
+      <c r="V49" s="1">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="W49" t="s">
+        <v>52</v>
+      </c>
+      <c r="X49" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J50" s="3">
         <v>8</v>
       </c>
@@ -14357,8 +16060,32 @@
       <c r="P50" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="R50">
+        <v>8</v>
+      </c>
+      <c r="S50">
+        <v>200</v>
+      </c>
+      <c r="T50">
+        <v>132.09904599199999</v>
+      </c>
+      <c r="U50">
+        <v>1.2956051826499999</v>
+      </c>
+      <c r="V50" s="1">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="W50" t="s">
+        <v>52</v>
+      </c>
+      <c r="X50" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J51" s="3">
         <v>9</v>
       </c>
@@ -14380,8 +16107,32 @@
       <c r="P51" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="R51">
+        <v>9</v>
+      </c>
+      <c r="S51">
+        <v>200</v>
+      </c>
+      <c r="T51">
+        <v>147.792614937</v>
+      </c>
+      <c r="U51">
+        <v>1.29269886017</v>
+      </c>
+      <c r="V51" s="1">
+        <v>1.06E-2</v>
+      </c>
+      <c r="W51" t="s">
+        <v>52</v>
+      </c>
+      <c r="X51" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J52" s="3">
         <v>10</v>
       </c>
@@ -14403,8 +16154,29 @@
       <c r="P52" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="R52">
+        <v>10</v>
+      </c>
+      <c r="S52">
+        <v>200</v>
+      </c>
+      <c r="T52">
+        <v>165.40387296700001</v>
+      </c>
+      <c r="U52">
+        <v>1.2912590503700001</v>
+      </c>
+      <c r="V52" s="1">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="W52" t="s">
+        <v>52</v>
+      </c>
+      <c r="X52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J53" s="3">
         <v>11</v>
       </c>
@@ -14427,7 +16199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J54" s="3">
         <v>12</v>
       </c>
@@ -14450,7 +16222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J55" s="3">
         <v>13</v>
       </c>
@@ -14473,7 +16245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J56" s="3">
         <v>14</v>
       </c>
@@ -14496,7 +16268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J57" s="3">
         <v>15</v>
       </c>
@@ -14519,7 +16291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J58" s="3">
         <v>16</v>
       </c>
@@ -14542,7 +16314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J59" s="3">
         <v>17</v>
       </c>
@@ -14565,7 +16337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J60" s="3">
         <v>18</v>
       </c>
@@ -14588,7 +16360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J61" s="3">
         <v>19</v>
       </c>
@@ -14611,7 +16383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J63">
         <v>1</v>
       </c>
@@ -14633,8 +16405,29 @@
       <c r="P63" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="R63">
+        <v>1</v>
+      </c>
+      <c r="S63">
+        <v>200</v>
+      </c>
+      <c r="T63">
+        <v>17.441600084299999</v>
+      </c>
+      <c r="U63">
+        <v>1.2584340572399999</v>
+      </c>
+      <c r="V63" s="1">
+        <v>2.01E-2</v>
+      </c>
+      <c r="W63" t="s">
+        <v>53</v>
+      </c>
+      <c r="X63" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J64">
         <v>2</v>
       </c>
@@ -14656,8 +16449,29 @@
       <c r="P64" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="R64">
+        <v>2</v>
+      </c>
+      <c r="S64">
+        <v>200</v>
+      </c>
+      <c r="T64">
+        <v>34.857917070399999</v>
+      </c>
+      <c r="U64">
+        <v>1.3726241588600001</v>
+      </c>
+      <c r="V64" s="1">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="W64" t="s">
+        <v>53</v>
+      </c>
+      <c r="X64" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J65">
         <v>3</v>
       </c>
@@ -14679,8 +16493,29 @@
       <c r="P65" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="R65">
+        <v>3</v>
+      </c>
+      <c r="S65">
+        <v>200</v>
+      </c>
+      <c r="T65">
+        <v>52.333017826099997</v>
+      </c>
+      <c r="U65">
+        <v>1.3732528686500001</v>
+      </c>
+      <c r="V65" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="W65" t="s">
+        <v>53</v>
+      </c>
+      <c r="X65" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J66">
         <v>4</v>
       </c>
@@ -14702,8 +16537,29 @@
       <c r="P66" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="R66">
+        <v>4</v>
+      </c>
+      <c r="S66">
+        <v>200</v>
+      </c>
+      <c r="T66">
+        <v>70.104335069699999</v>
+      </c>
+      <c r="U66">
+        <v>1.4866480827299999</v>
+      </c>
+      <c r="V66" s="1">
+        <v>1.49E-2</v>
+      </c>
+      <c r="W66" t="s">
+        <v>53</v>
+      </c>
+      <c r="X66" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J67">
         <v>5</v>
       </c>
@@ -14725,8 +16581,29 @@
       <c r="P67" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="R67">
+        <v>5</v>
+      </c>
+      <c r="S67">
+        <v>200</v>
+      </c>
+      <c r="T67">
+        <v>88.690194845199997</v>
+      </c>
+      <c r="U67">
+        <v>1.4939019680000001</v>
+      </c>
+      <c r="V67" s="1">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="W67" t="s">
+        <v>53</v>
+      </c>
+      <c r="X67" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J68">
         <v>6</v>
       </c>
@@ -14748,8 +16625,29 @@
       <c r="P68" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="R68">
+        <v>6</v>
+      </c>
+      <c r="S68">
+        <v>200</v>
+      </c>
+      <c r="T68">
+        <v>105.34569096600001</v>
+      </c>
+      <c r="U68">
+        <v>1.4993469715100001</v>
+      </c>
+      <c r="V68" s="1">
+        <v>1.44E-2</v>
+      </c>
+      <c r="W68" t="s">
+        <v>53</v>
+      </c>
+      <c r="X68" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J69">
         <v>7</v>
       </c>
@@ -14771,8 +16669,29 @@
       <c r="P69" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="R69">
+        <v>7</v>
+      </c>
+      <c r="S69">
+        <v>200</v>
+      </c>
+      <c r="T69">
+        <v>121.656322002</v>
+      </c>
+      <c r="U69">
+        <v>1.3554949760399999</v>
+      </c>
+      <c r="V69" s="1">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="W69" t="s">
+        <v>53</v>
+      </c>
+      <c r="X69" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J70">
         <v>8</v>
       </c>
@@ -14794,8 +16713,29 @@
       <c r="P70" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="R70">
+        <v>8</v>
+      </c>
+      <c r="S70">
+        <v>200</v>
+      </c>
+      <c r="T70">
+        <v>137.57618904099999</v>
+      </c>
+      <c r="U70">
+        <v>1.35385203362</v>
+      </c>
+      <c r="V70" s="1">
+        <v>1.35E-2</v>
+      </c>
+      <c r="W70" t="s">
+        <v>53</v>
+      </c>
+      <c r="X70" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J71">
         <v>9</v>
       </c>
@@ -14817,8 +16757,29 @@
       <c r="P71" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="R71">
+        <v>9</v>
+      </c>
+      <c r="S71">
+        <v>200</v>
+      </c>
+      <c r="T71">
+        <v>150.40406990100001</v>
+      </c>
+      <c r="U71">
+        <v>1.3538081646</v>
+      </c>
+      <c r="V71" s="1">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="W71" t="s">
+        <v>53</v>
+      </c>
+      <c r="X71" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J72">
         <v>10</v>
       </c>
@@ -14840,8 +16801,29 @@
       <c r="P72" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="R72">
+        <v>10</v>
+      </c>
+      <c r="S72">
+        <v>200</v>
+      </c>
+      <c r="T72">
+        <v>170.00368380500001</v>
+      </c>
+      <c r="U72">
+        <v>1.3477849960299999</v>
+      </c>
+      <c r="V72" s="1">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="W72" t="s">
+        <v>53</v>
+      </c>
+      <c r="X72" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J73">
         <v>11</v>
       </c>
@@ -14864,7 +16846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J74">
         <v>12</v>
       </c>
@@ -14887,7 +16869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J75">
         <v>13</v>
       </c>
@@ -14910,7 +16892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J76">
         <v>14</v>
       </c>
@@ -14933,7 +16915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J77">
         <v>15</v>
       </c>
@@ -14956,7 +16938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J78">
         <v>16</v>
       </c>
@@ -14979,7 +16961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J79">
         <v>17</v>
       </c>
@@ -15002,7 +16984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J80">
         <v>18</v>
       </c>
@@ -15025,7 +17007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J81">
         <v>19</v>
       </c>
@@ -15048,7 +17030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J83">
         <v>1</v>
       </c>
@@ -15070,8 +17052,32 @@
       <c r="P83" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="R83">
+        <v>1</v>
+      </c>
+      <c r="S83">
+        <v>200</v>
+      </c>
+      <c r="T83">
+        <v>16.658231019999999</v>
+      </c>
+      <c r="U83">
+        <v>1.29814386368</v>
+      </c>
+      <c r="V83" s="1">
+        <v>2.01E-2</v>
+      </c>
+      <c r="W83" t="s">
+        <v>54</v>
+      </c>
+      <c r="X83" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J84">
         <v>2</v>
       </c>
@@ -15093,8 +17099,32 @@
       <c r="P84" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="R84">
+        <v>2</v>
+      </c>
+      <c r="S84">
+        <v>200</v>
+      </c>
+      <c r="T84">
+        <v>32.2096071243</v>
+      </c>
+      <c r="U84">
+        <v>1.2828769683800001</v>
+      </c>
+      <c r="V84" s="1">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="W84" t="s">
+        <v>54</v>
+      </c>
+      <c r="X84" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J85">
         <v>3</v>
       </c>
@@ -15116,8 +17146,32 @@
       <c r="P85" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="R85">
+        <v>3</v>
+      </c>
+      <c r="S85">
+        <v>200</v>
+      </c>
+      <c r="T85">
+        <v>48.516608953499997</v>
+      </c>
+      <c r="U85">
+        <v>1.29966592789</v>
+      </c>
+      <c r="V85" s="1">
+        <v>1.54E-2</v>
+      </c>
+      <c r="W85" t="s">
+        <v>54</v>
+      </c>
+      <c r="X85" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="86" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J86">
         <v>4</v>
       </c>
@@ -15139,8 +17193,32 @@
       <c r="P86" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="R86">
+        <v>4</v>
+      </c>
+      <c r="S86">
+        <v>200</v>
+      </c>
+      <c r="T86">
+        <v>63.2498371601</v>
+      </c>
+      <c r="U86">
+        <v>1.3047819137600001</v>
+      </c>
+      <c r="V86" s="1">
+        <v>1.54E-2</v>
+      </c>
+      <c r="W86" t="s">
+        <v>54</v>
+      </c>
+      <c r="X86" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="87" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J87">
         <v>5</v>
       </c>
@@ -15162,8 +17240,32 @@
       <c r="P87" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="R87">
+        <v>5</v>
+      </c>
+      <c r="S87">
+        <v>200</v>
+      </c>
+      <c r="T87">
+        <v>78.7806379795</v>
+      </c>
+      <c r="U87">
+        <v>1.2924959659599999</v>
+      </c>
+      <c r="V87" s="1">
+        <v>1.54E-2</v>
+      </c>
+      <c r="W87" t="s">
+        <v>54</v>
+      </c>
+      <c r="X87" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J88">
         <v>6</v>
       </c>
@@ -15185,8 +17287,32 @@
       <c r="P88" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="R88">
+        <v>6</v>
+      </c>
+      <c r="S88">
+        <v>200</v>
+      </c>
+      <c r="T88">
+        <v>94.575211048100002</v>
+      </c>
+      <c r="U88">
+        <v>1.3062629699699999</v>
+      </c>
+      <c r="V88" s="1">
+        <v>1.47E-2</v>
+      </c>
+      <c r="W88" t="s">
+        <v>54</v>
+      </c>
+      <c r="X88" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J89">
         <v>7</v>
       </c>
@@ -15208,8 +17334,32 @@
       <c r="P89" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="R89">
+        <v>7</v>
+      </c>
+      <c r="S89">
+        <v>200</v>
+      </c>
+      <c r="T89">
+        <v>110.36895704299999</v>
+      </c>
+      <c r="U89">
+        <v>1.29629302025</v>
+      </c>
+      <c r="V89" s="1">
+        <v>1.47E-2</v>
+      </c>
+      <c r="W89" t="s">
+        <v>54</v>
+      </c>
+      <c r="X89" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J90">
         <v>8</v>
       </c>
@@ -15231,8 +17381,29 @@
       <c r="P90" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="R90">
+        <v>8</v>
+      </c>
+      <c r="S90">
+        <v>200</v>
+      </c>
+      <c r="T90">
+        <v>125.62333703</v>
+      </c>
+      <c r="U90">
+        <v>1.3013830184899999</v>
+      </c>
+      <c r="V90" s="1">
+        <v>1.44E-2</v>
+      </c>
+      <c r="W90" t="s">
+        <v>54</v>
+      </c>
+      <c r="X90" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="91" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J91">
         <v>9</v>
       </c>
@@ -15254,8 +17425,29 @@
       <c r="P91" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="R91">
+        <v>9</v>
+      </c>
+      <c r="S91">
+        <v>200</v>
+      </c>
+      <c r="T91">
+        <v>141.59635399999999</v>
+      </c>
+      <c r="U91">
+        <v>1.32292622</v>
+      </c>
+      <c r="V91" s="1">
+        <v>1.44E-2</v>
+      </c>
+      <c r="W91" t="s">
+        <v>54</v>
+      </c>
+      <c r="X91" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="92" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J92">
         <v>10</v>
       </c>
@@ -15277,8 +17469,29 @@
       <c r="P92" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="R92">
+        <v>10</v>
+      </c>
+      <c r="S92">
+        <v>200</v>
+      </c>
+      <c r="T92">
+        <v>153.256325</v>
+      </c>
+      <c r="U92">
+        <v>1.3029226599999999</v>
+      </c>
+      <c r="V92" s="1">
+        <v>1.44E-2</v>
+      </c>
+      <c r="W92" t="s">
+        <v>54</v>
+      </c>
+      <c r="X92" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="93" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J93">
         <v>11</v>
       </c>
@@ -15301,7 +17514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J94">
         <v>12</v>
       </c>
@@ -15324,7 +17537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J95">
         <v>13</v>
       </c>
@@ -15347,7 +17560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="10:26" x14ac:dyDescent="0.25">
       <c r="J96">
         <v>14</v>
       </c>
